--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET/4U.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET/4U.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F0EC7-1425-44EF-8100-58D97F1C8B7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD555540-EAE8-4E83-AE02-B7F76DEB24E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13700,7 +13700,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:J17"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13786,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -13856,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
